--- a/classification-vs-alliance.xlsx
+++ b/classification-vs-alliance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/fernandezpeduardo_uniovi_es1/Documents/GitHub/manmade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{10589D2A-6CB7-47F9-9452-67555654D12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{10589D2A-6CB7-47F9-9452-67555654D12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44109D5F-A624-4655-8A5D-275CF8EFBB4B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView minimized="1" xWindow="13305" yWindow="735" windowWidth="13035" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classification-vs-alliance" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>CODE</t>
   </si>
@@ -212,12 +212,21 @@
   </si>
   <si>
     <t>Mayoria Parietarion</t>
+  </si>
+  <si>
+    <t>Geo urbani-Alliarion officinalis I</t>
+  </si>
+  <si>
+    <t>Geo urbani-Alliarion officinalis II</t>
+  </si>
+  <si>
+    <t>Geo urbani-Alliarion officinalis III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +549,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -701,9 +716,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -760,6 +776,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1058,132 +1078,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
@@ -1278,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
@@ -1325,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1364,11 +1382,11 @@
         <v>0</v>
       </c>
       <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>28</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
       <c r="AE3">
         <v>0</v>
       </c>
@@ -1384,14 +1402,14 @@
       <c r="AI3">
         <v>0</v>
       </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -1486,16 +1504,16 @@
         <v>0</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -1590,16 +1608,16 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -1619,11 +1637,11 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
@@ -1649,16 +1667,16 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1673,11 +1691,11 @@
         <v>0</v>
       </c>
       <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
         <v>113</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
       <c r="AD6">
         <v>0</v>
       </c>
@@ -1694,16 +1712,16 @@
         <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
         <v>0</v>
       </c>
@@ -1711,28 +1729,28 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1777,42 +1795,42 @@
         <v>0</v>
       </c>
       <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <v>20</v>
       </c>
-      <c r="AC7">
-        <v>1</v>
-      </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>2</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>126</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1821,23 +1839,23 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -1845,14 +1863,14 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>8</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
         <v>0</v>
       </c>
@@ -1863,64 +1881,65 @@
         <v>0</v>
       </c>
       <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>2</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
         <v>87</v>
       </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>3</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>156</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -1931,11 +1950,11 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
@@ -1943,17 +1962,17 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
         <v>0</v>
       </c>
@@ -1970,64 +1989,65 @@
         <v>0</v>
       </c>
       <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>3</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>106</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>60</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>2</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>4</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
         <v>4</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>2</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
         <v>0</v>
       </c>
@@ -2035,14 +2055,14 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
@@ -2053,16 +2073,16 @@
         <v>0</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>19</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2083,49 +2103,49 @@
         <v>0</v>
       </c>
       <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>4</v>
       </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>89</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
         <v>11</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>31</v>
       </c>
-      <c r="AG10">
-        <v>1</v>
-      </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
@@ -2163,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2178,29 +2198,29 @@
         <v>0</v>
       </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>4</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>19</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>2</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
         <v>34</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
       <c r="AC11">
         <v>0</v>
       </c>
@@ -2222,34 +2242,34 @@
       <c r="AI11">
         <v>0</v>
       </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>4</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2276,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -2288,14 +2308,14 @@
         <v>0</v>
       </c>
       <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>2</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>4</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
         <v>0</v>
       </c>
@@ -2303,43 +2323,43 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>103</v>
       </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
         <v>0</v>
       </c>
@@ -2353,11 +2373,11 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>41</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
         <v>0</v>
       </c>
@@ -2383,11 +2403,11 @@
         <v>0</v>
       </c>
       <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <v>3</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
       <c r="V13">
         <v>0</v>
       </c>
@@ -2430,41 +2450,42 @@
       <c r="AI13">
         <v>0</v>
       </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>26</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>43</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
         <v>0</v>
       </c>
@@ -2490,11 +2511,11 @@
         <v>0</v>
       </c>
       <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <v>3</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
       <c r="V14">
         <v>0</v>
       </c>
@@ -2520,11 +2541,11 @@
         <v>0</v>
       </c>
       <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
         <v>4</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
       <c r="AF14">
         <v>0</v>
       </c>
@@ -2535,25 +2556,25 @@
         <v>0</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>27</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -2561,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2573,40 +2594,40 @@
         <v>0</v>
       </c>
       <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>39</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>13</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>3</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2618,46 +2639,46 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
         <v>2</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>9</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>3</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>6</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
       <c r="AH15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>11</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -2668,23 +2689,23 @@
         <v>0</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>3</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
       <c r="P16">
         <v>0</v>
       </c>
@@ -2692,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2722,20 +2743,20 @@
         <v>0</v>
       </c>
       <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
         <v>2</v>
       </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
       <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
         <v>12</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>31</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
       <c r="AG16">
         <v>0</v>
       </c>
@@ -2743,25 +2764,28 @@
         <v>0</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="C17">
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>15</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -2775,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2793,14 +2817,14 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>112</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>28</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
       <c r="T17">
         <v>0</v>
       </c>
@@ -2829,43 +2853,46 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
         <v>1</v>
       </c>
       <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
         <v>2</v>
       </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>33</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -2873,14 +2900,14 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
         <v>25</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
         <v>0</v>
       </c>
@@ -2909,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2924,11 +2951,11 @@
         <v>0</v>
       </c>
       <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
         <v>5</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
       <c r="AB18">
         <v>0</v>
       </c>
@@ -2951,27 +2978,30 @@
         <v>0</v>
       </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="C19">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>11</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>115</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2998,14 +3028,14 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>2</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>4</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
       <c r="S19">
         <v>0</v>
       </c>
@@ -3037,17 +3067,17 @@
         <v>0</v>
       </c>
       <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
         <v>8</v>
       </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
       <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
         <v>2</v>
       </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
       <c r="AG19">
         <v>0</v>
       </c>
@@ -3055,28 +3085,31 @@
         <v>0</v>
       </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>42</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>11</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
         <v>0</v>
       </c>
@@ -3108,20 +3141,20 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>2</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
       <c r="V20">
         <v>0</v>
       </c>
@@ -3141,20 +3174,20 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
         <v>2</v>
       </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
       <c r="AG20">
         <v>0</v>
       </c>
@@ -3164,26 +3197,29 @@
       <c r="AI20">
         <v>0</v>
       </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>21</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>4</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>14</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -3194,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3215,11 +3251,11 @@
         <v>0</v>
       </c>
       <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>2</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
       <c r="S21">
         <v>0</v>
       </c>
@@ -3271,20 +3307,23 @@
       <c r="AI21">
         <v>0</v>
       </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
         <v>0</v>
       </c>
@@ -3316,14 +3355,14 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
         <v>32</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
       <c r="S22">
         <v>0</v>
       </c>
@@ -3364,28 +3403,29 @@
         <v>0</v>
       </c>
       <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>3</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
       <c r="AH22">
         <v>0</v>
       </c>
       <c r="AI22">
         <v>0</v>
       </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
       <c r="D23">
         <v>0</v>
       </c>
@@ -3408,11 +3448,11 @@
         <v>0</v>
       </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>2</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
       <c r="M23">
         <v>0</v>
       </c>
@@ -3423,11 +3463,11 @@
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>32</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="R23">
         <v>0</v>
       </c>
@@ -3482,17 +3522,18 @@
       <c r="AI23">
         <v>0</v>
       </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
       <c r="D24">
         <v>0</v>
       </c>
@@ -3515,11 +3556,11 @@
         <v>0</v>
       </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>44</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
       <c r="M24">
         <v>0</v>
       </c>
@@ -3530,17 +3571,17 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>98</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>2</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
         <v>0</v>
       </c>
@@ -3587,11 +3628,14 @@
         <v>0</v>
       </c>
       <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:AI24">
+  <conditionalFormatting sqref="D2:AJ24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
